--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBD8E8-8BA1-4169-8012-938DFEA389DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F79B9A9-FEA5-4210-A485-174F634447BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D6C26095-3954-4DE8-B600-49D1FC1771E2}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D6C26095-3954-4DE8-B600-49D1FC1771E2}">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="206">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2747,6 +2747,12 @@
   </si>
   <si>
     <t>Attendees Conflicts Timeslot Level:</t>
+  </si>
+  <si>
+    <t>Tracks Same Building</t>
+  </si>
+  <si>
+    <t>Consultancy, Supply Chain &amp; Transportation Management</t>
   </si>
 </sst>
 </file>
@@ -3075,18 +3081,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3096,6 +3090,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3104,12 +3104,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3123,10 +3117,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3143,9 +3149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3168,14 +3171,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3460,7 +3466,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3544,7 +3550,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="51"/>
@@ -3567,347 +3573,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -3916,427 +3922,439 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4353,27 +4371,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6461,10 +6467,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6474,11 +6480,12 @@
     <col min="4" max="4" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="6"/>
+    <col min="7" max="7" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6498,10 +6505,13 @@
         <v>199</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -6521,10 +6531,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -6540,11 +6553,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -6561,11 +6574,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -6582,11 +6596,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6603,11 +6618,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -6624,11 +6640,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -6645,11 +6662,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -6666,96 +6684,97 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="9"/>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7060,7 +7079,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7176,7 +7195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F79B9A9-FEA5-4210-A485-174F634447BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7C84E-9C39-451C-8BF4-BFF98AC999C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="265">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2497,12 +2497,6 @@
     <t>George Carter</t>
   </si>
   <si>
-    <t>Gordon Squire, Panagiotis Samartzis</t>
-  </si>
-  <si>
-    <t>Fahim Ahmed, Dominic Finn</t>
-  </si>
-  <si>
     <t>Ahmed Kheiri</t>
   </si>
   <si>
@@ -2533,12 +2527,6 @@
     <t>Ayse Aslan</t>
   </si>
   <si>
-    <t>Ilke Bakir, Iris Vis</t>
-  </si>
-  <si>
-    <t>Ricardo Andrade, Nonu Mira, Marie France Sagot, Joel L Santos, Susan Vinga</t>
-  </si>
-  <si>
     <t>John Newman</t>
   </si>
   <si>
@@ -2557,9 +2545,6 @@
     <t>Leena Ahmed</t>
   </si>
   <si>
-    <t>Philipp Heyken, Ahmed Kheiri, Yong Mao, Christine Mumford</t>
-  </si>
-  <si>
     <t>Dominic Finn</t>
   </si>
   <si>
@@ -2596,9 +2581,6 @@
     <t>Bingling She</t>
   </si>
   <si>
-    <t>Darek Ceglarek, Bo Chen</t>
-  </si>
-  <si>
     <t>Yuchen Liu</t>
   </si>
   <si>
@@ -2647,9 +2629,6 @@
     <t>In-person?</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -2659,18 +2638,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Fahim</t>
-  </si>
-  <si>
-    <t>f.ahmed@a.com</t>
-  </si>
-  <si>
-    <t>Lancaster University</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Can Open Session?</t>
   </si>
   <si>
@@ -2753,6 +2720,216 @@
   </si>
   <si>
     <t>Consultancy, Supply Chain &amp; Transportation Management</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>Panagiotis Samartzis</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>Ilke Bakir</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>Iris Vis</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>Philipp Heyken</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>Yong Mao</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>Christine Mumford</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>Ricardo Andrade</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>Nonu Mira</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>Marie France Sagot</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>Joel L Santos</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>Susan Vinga</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>Darek Ceglarek</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>Bo Chen</t>
+  </si>
+  <si>
+    <t>P0, P1</t>
+  </si>
+  <si>
+    <t>P8, P9</t>
+  </si>
+  <si>
+    <t>P39, P40</t>
+  </si>
+  <si>
+    <t>P41, P3, P42, P43</t>
+  </si>
+  <si>
+    <t>P45, P46, P47, P48, P49</t>
+  </si>
+  <si>
+    <t>P50, P51</t>
   </si>
 </sst>
 </file>
@@ -3081,6 +3258,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3090,12 +3279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3104,6 +3287,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3117,22 +3306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3149,6 +3326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3171,17 +3351,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3550,7 +3727,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="51"/>
@@ -3573,347 +3750,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -3922,418 +4099,448 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -4350,36 +4557,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4629,8 +4806,8 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4642,8 +4819,8 @@
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9.33203125" style="1"/>
     <col min="17" max="16384" width="9.33203125" style="9"/>
   </cols>
@@ -4659,22 +4836,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>51</v>
@@ -4732,7 +4909,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="K2" s="9"/>
       <c r="P2" s="1"/>
@@ -4766,7 +4943,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="K3" s="9"/>
       <c r="P3" s="1"/>
@@ -4800,7 +4977,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="K4" s="9"/>
       <c r="P4" s="1"/>
@@ -4834,10 +5011,10 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -4870,7 +5047,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="K6" s="9"/>
       <c r="P6" s="1"/>
@@ -4904,7 +5081,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="K7" s="9"/>
       <c r="P7" s="1"/>
@@ -4938,7 +5115,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="K8" s="9"/>
       <c r="N8" s="1">
@@ -4978,7 +5155,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K9" s="9"/>
       <c r="P9" s="1"/>
@@ -5012,10 +5189,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5048,7 +5225,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="K11" s="9"/>
       <c r="P11" s="1"/>
@@ -5082,7 +5259,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="1">
@@ -5122,7 +5299,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="1">
@@ -5162,7 +5339,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" s="1"/>
@@ -5196,7 +5373,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="K15" s="9"/>
       <c r="P15" s="1"/>
@@ -5230,10 +5407,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5266,7 +5443,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K17" s="9"/>
       <c r="P17" s="1"/>
@@ -5300,7 +5477,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K18" s="9"/>
       <c r="P18" s="1"/>
@@ -5334,7 +5511,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -5372,7 +5549,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -5406,10 +5583,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -5441,10 +5618,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -5478,7 +5655,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -5510,7 +5687,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" s="1"/>
@@ -5543,7 +5720,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" s="1"/>
@@ -5576,7 +5753,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="K26" s="9"/>
       <c r="P26" s="1"/>
@@ -5609,7 +5786,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" s="1"/>
@@ -5642,10 +5819,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -5654,7 +5831,7 @@
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -5677,7 +5854,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -5715,7 +5892,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -5747,7 +5924,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -5779,10 +5956,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5814,7 +5991,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="K33" s="9"/>
       <c r="P33" s="1"/>
@@ -5847,7 +6024,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="K34" s="9"/>
       <c r="P34" s="1"/>
@@ -5880,7 +6057,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="K35" s="9"/>
       <c r="P35" s="1"/>
@@ -5913,7 +6090,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="K36" s="9"/>
       <c r="P36" s="1"/>
@@ -6469,9 +6646,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6481,7 +6656,7 @@
     <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.33203125" style="6"/>
   </cols>
   <sheetData>
@@ -6490,25 +6665,25 @@
         <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6531,10 +6706,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6554,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6576,7 +6751,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6598,7 +6773,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6620,7 +6795,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6642,7 +6817,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6664,7 +6839,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6686,7 +6861,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6786,68 +6961,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>173</v>
+      <c r="C1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>89</v>
@@ -6857,40 +7019,718 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="6"/>
+      <c r="A13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6919,13 +7759,13 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>50</v>
@@ -7078,9 +7918,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7090,10 +7928,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7118,7 +7956,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7126,7 +7964,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7134,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7142,7 +7980,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7306,7 +8144,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" s="23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
@@ -7314,7 +8152,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="23" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -7328,7 +8166,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E12" s="27">
         <v>0</v>
@@ -7336,7 +8174,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="23" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E13" s="27"/>
     </row>
@@ -7374,7 +8212,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E18" s="27">
         <v>1000</v>
@@ -7390,22 +8228,22 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7C84E-9C39-451C-8BF4-BFF98AC999C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B59A9D-2EEA-4D58-8939-B985D02CDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
-    <sheet name="submissions" sheetId="19" r:id="rId2"/>
-    <sheet name="tracks" sheetId="12" r:id="rId3"/>
-    <sheet name="participants" sheetId="28" r:id="rId4"/>
-    <sheet name="sessions" sheetId="10" r:id="rId5"/>
-    <sheet name="rooms" sheetId="11" r:id="rId6"/>
-    <sheet name="parameters" sheetId="27" r:id="rId7"/>
+    <sheet name="parameters" sheetId="27" r:id="rId2"/>
+    <sheet name="submissions" sheetId="19" r:id="rId3"/>
+    <sheet name="tracks" sheetId="12" r:id="rId4"/>
+    <sheet name="participants" sheetId="28" r:id="rId5"/>
+    <sheet name="sessions" sheetId="10" r:id="rId6"/>
+    <sheet name="rooms" sheetId="11" r:id="rId7"/>
     <sheet name="tracks_sessions|penalty" sheetId="3" r:id="rId8"/>
     <sheet name="tracks_rooms|penalty" sheetId="6" r:id="rId9"/>
     <sheet name="tracks_tracks|penalty" sheetId="13" r:id="rId10"/>
     <sheet name="sessions_rooms|penalty" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">submissions!$B$2:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">submissions!$B$2:$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="272">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2930,6 +2930,27 @@
   </si>
   <si>
     <t>P50, P51</t>
+  </si>
+  <si>
+    <t>Same Session:</t>
+  </si>
+  <si>
+    <t>Different Session:</t>
+  </si>
+  <si>
+    <t>Open Session:</t>
+  </si>
+  <si>
+    <t>Close Session:</t>
+  </si>
+  <si>
+    <t>Track Max Number of Days:</t>
+  </si>
+  <si>
+    <t>Tracks Same Room:</t>
+  </si>
+  <si>
+    <t>Tracks Same Building:</t>
   </si>
 </sst>
 </file>
@@ -3258,18 +3279,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3279,6 +3288,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3287,12 +3302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3306,10 +3315,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3326,9 +3347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3351,14 +3369,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3727,7 +3748,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="51"/>
@@ -3750,347 +3771,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4099,427 +4120,439 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4536,27 +4569,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4801,13 +4822,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="D3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0897C8D5-F22C-470F-A759-5428470FF6AC}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6641,12 +6964,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6959,11 +7284,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7739,13 +8066,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7913,7 +8240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S18"/>
@@ -8026,229 +8353,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="D3" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0.875</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B59A9D-2EEA-4D58-8939-B985D02CDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F069DDEE-D816-4DFA-8779-1CB27E38C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2951,6 +2951,15 @@
   </si>
   <si>
     <t>Tracks Same Building:</t>
+  </si>
+  <si>
+    <t>Preferred Number of Timeslots:</t>
+  </si>
+  <si>
+    <t>Min Number of Timeslots:</t>
+  </si>
+  <si>
+    <t>Max Number of Timeslots:</t>
   </si>
 </sst>
 </file>
@@ -3279,6 +3288,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3288,12 +3309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3302,6 +3317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3315,22 +3336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3347,6 +3356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3369,17 +3381,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3748,7 +3757,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="51"/>
@@ -3771,347 +3780,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4120,418 +4129,448 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -4548,36 +4587,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4823,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4994,7 +5003,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="23" t="s">
         <v>111</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
         <v>174</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="23" t="s">
         <v>112</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
         <v>183</v>
       </c>
@@ -5026,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
         <v>190</v>
       </c>
@@ -5034,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
         <v>191</v>
       </c>
@@ -5042,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
         <v>192</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
         <v>267</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
         <v>268</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
         <v>265</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="s">
         <v>266</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
         <v>269</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
         <v>270</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
         <v>271</v>
       </c>
@@ -5106,15 +5115,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F069DDEE-D816-4DFA-8779-1CB27E38C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEBFE1-9725-4015-868B-4C1D9D535868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="276">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -1857,9 +1857,6 @@
   </si>
   <si>
     <t>NEW19A3749</t>
-  </si>
-  <si>
-    <t>Reference</t>
   </si>
   <si>
     <t>Track</t>
@@ -2392,9 +2389,6 @@
   </si>
   <si>
     <t>Consecutive Tracks:</t>
-  </si>
-  <si>
-    <t>Submissions_Timezones|Penalty:</t>
   </si>
   <si>
     <t>Submissions_Sessions|Penalty:</t>
@@ -2960,6 +2954,15 @@
   </si>
   <si>
     <t>Max Number of Timeslots:</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Submissions_Timezones Per Person:</t>
+  </si>
+  <si>
+    <t>Submissions_Timezones:</t>
   </si>
 </sst>
 </file>
@@ -3288,18 +3291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3309,6 +3300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3317,12 +3314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3336,10 +3327,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3356,9 +3359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3381,14 +3381,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3684,7 +3687,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -3757,8 +3760,8 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
-        <v>114</v>
+      <c r="A11" s="59" t="s">
+        <v>112</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -3780,776 +3783,788 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="61"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="61"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
+    </row>
+    <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4566,27 +4581,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4798,22 +4801,22 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4832,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4851,7 +4854,7 @@
       <c r="B1" s="22"/>
       <c r="C1" s="2"/>
       <c r="D1" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="2"/>
@@ -4867,13 +4870,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="27">
         <v>0</v>
@@ -4881,11 +4884,11 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="24"/>
       <c r="D3" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
@@ -4893,13 +4896,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="28">
         <v>0.375</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="27">
         <v>0</v>
@@ -4907,13 +4910,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="28">
         <v>0.875</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="27">
         <v>100</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D6" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="27">
         <v>10</v>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="27">
         <v>1000</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="27">
         <v>10</v>
@@ -4945,7 +4948,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
@@ -4953,13 +4956,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="23" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="E11" s="27">
         <v>10</v>
@@ -4967,45 +4970,45 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="23" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="E12" s="27">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="27">
-        <v>50</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="27">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="27">
         <v>1000</v>
@@ -5013,7 +5016,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="E18" s="27">
         <v>1000</v>
@@ -5021,15 +5024,15 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="23" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="E19" s="27">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="E20" s="27">
         <v>0</v>
@@ -5037,7 +5040,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E21" s="27">
         <v>0</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E22" s="27">
         <v>0</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E23" s="27">
         <v>0</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="E24" s="27">
         <v>0</v>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E25" s="27">
         <v>0</v>
@@ -5077,7 +5080,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E26" s="27">
         <v>0</v>
@@ -5085,7 +5088,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E27" s="27">
         <v>0</v>
@@ -5093,7 +5096,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E28" s="27">
         <v>0</v>
@@ -5101,7 +5104,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E29" s="27">
         <v>0</v>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E30" s="27">
         <v>0</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E31" s="27">
         <v>0</v>
@@ -5125,7 +5128,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E32" s="27">
         <v>0</v>
@@ -5133,9 +5136,17 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5151,8 +5162,8 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5172,49 +5183,49 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="L1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="P1" s="18" t="s">
         <v>3</v>
@@ -5254,7 +5265,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K2" s="9"/>
       <c r="P2" s="1"/>
@@ -5288,7 +5299,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K3" s="9"/>
       <c r="P3" s="1"/>
@@ -5322,7 +5333,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K4" s="9"/>
       <c r="P4" s="1"/>
@@ -5356,10 +5367,10 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -5392,7 +5403,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K6" s="9"/>
       <c r="P6" s="1"/>
@@ -5426,7 +5437,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K7" s="9"/>
       <c r="P7" s="1"/>
@@ -5460,7 +5471,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="9"/>
       <c r="N8" s="1">
@@ -5500,7 +5511,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K9" s="9"/>
       <c r="P9" s="1"/>
@@ -5534,10 +5545,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5570,7 +5581,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K11" s="9"/>
       <c r="P11" s="1"/>
@@ -5604,7 +5615,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="1">
@@ -5644,7 +5655,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="1">
@@ -5684,7 +5695,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" s="1"/>
@@ -5718,7 +5729,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K15" s="9"/>
       <c r="P15" s="1"/>
@@ -5752,10 +5763,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5788,7 +5799,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K17" s="9"/>
       <c r="P17" s="1"/>
@@ -5822,7 +5833,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K18" s="9"/>
       <c r="P18" s="1"/>
@@ -5856,7 +5867,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -5894,7 +5905,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -5928,10 +5939,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -5963,10 +5974,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6000,7 +6011,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6032,7 +6043,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" s="1"/>
@@ -6065,7 +6076,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" s="1"/>
@@ -6098,7 +6109,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K26" s="9"/>
       <c r="P26" s="1"/>
@@ -6131,7 +6142,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" s="1"/>
@@ -6164,10 +6175,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6176,7 +6187,7 @@
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>11</v>
@@ -6199,7 +6210,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -6237,7 +6248,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -6269,7 +6280,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -6301,10 +6312,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6336,7 +6347,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33" s="9"/>
       <c r="P33" s="1"/>
@@ -6369,7 +6380,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K34" s="9"/>
       <c r="P34" s="1"/>
@@ -6402,7 +6413,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K35" s="9"/>
       <c r="P35" s="1"/>
@@ -6435,7 +6446,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K36" s="9"/>
       <c r="P36" s="1"/>
@@ -6992,7 +7003,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7009,28 +7020,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7053,10 +7064,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7076,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7098,7 +7109,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7120,7 +7131,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7142,7 +7153,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7164,7 +7175,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7186,7 +7197,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7208,7 +7219,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7311,7 +7322,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7325,43 +7336,43 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -7369,13 +7380,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -7383,13 +7394,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
@@ -7397,13 +7408,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -7411,13 +7422,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
@@ -7425,13 +7436,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -7439,13 +7450,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -7453,13 +7464,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -7467,13 +7478,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -7481,13 +7492,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -7495,13 +7506,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -7509,13 +7520,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -7523,13 +7534,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -7537,13 +7548,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -7551,13 +7562,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -7565,13 +7576,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -7579,13 +7590,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -7593,13 +7604,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -7607,13 +7618,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -7621,13 +7632,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -7635,13 +7646,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -7649,13 +7660,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -7663,13 +7674,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -7677,13 +7688,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -7691,13 +7702,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -7705,13 +7716,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -7719,13 +7730,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -7733,13 +7744,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -7747,13 +7758,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
@@ -7761,13 +7772,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
@@ -7775,13 +7786,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
@@ -7789,13 +7800,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
@@ -7803,13 +7814,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
@@ -7817,13 +7828,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
@@ -7831,13 +7842,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
@@ -7845,13 +7856,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
@@ -7859,13 +7870,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
@@ -7873,13 +7884,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
@@ -7887,13 +7898,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
@@ -7901,13 +7912,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -7915,13 +7926,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>1</v>
@@ -7929,13 +7940,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
@@ -7943,13 +7954,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
@@ -7957,13 +7968,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>1</v>
@@ -7971,13 +7982,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>1</v>
@@ -7985,13 +7996,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>1</v>
@@ -7999,13 +8010,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>1</v>
@@ -8013,13 +8024,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>1</v>
@@ -8027,13 +8038,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>1</v>
@@ -8041,13 +8052,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>1</v>
@@ -8055,13 +8066,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>1</v>
@@ -8069,13 +8080,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>1</v>
@@ -8094,7 +8105,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8108,25 +8119,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -8145,7 +8156,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -8168,7 +8179,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8191,7 +8202,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -8214,7 +8225,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -8277,10 +8288,10 @@
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8305,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8313,7 +8324,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8321,7 +8332,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8329,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8385,7 +8396,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E9"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8397,16 +8408,16 @@
     <row r="1" spans="1:5" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ahmedkheiri\UnderWork\ConferenceScheduling\000.sourceCodeGithub\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEBFE1-9725-4015-868B-4C1D9D535868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B0CF7-19C3-4DD9-9CB8-57004DCD2410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2957,9 +2957,6 @@
   </si>
   <si>
     <t>Submission</t>
-  </si>
-  <si>
-    <t>Submissions_Timezones Per Person:</t>
   </si>
   <si>
     <t>Submissions_Timezones:</t>
@@ -3291,6 +3288,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3300,12 +3309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3314,6 +3317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3327,22 +3336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3359,6 +3356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3381,17 +3381,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3760,7 +3757,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="51"/>
@@ -3783,347 +3780,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4132,418 +4129,448 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -4560,36 +4587,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4835,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4891,7 +4888,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4905,7 +4902,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4919,7 +4916,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="27">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4927,7 +4924,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="27">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4935,7 +4932,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="27">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -4943,7 +4940,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="27">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -4951,203 +4948,199 @@
         <v>184</v>
       </c>
       <c r="E9" s="27">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="27">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="23" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="E12" s="27">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="27">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="E14" s="27">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="27">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="27">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="27">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="E18" s="27">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="23" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E19" s="27">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E20" s="27">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E21" s="27">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E22" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E23" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="E24" s="27">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E25" s="27">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E26" s="27">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E27" s="27">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E28" s="27">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E29" s="27">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E30" s="27">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E31" s="27">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E32" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E33" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="27">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7003,7 +6996,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7223,7 +7216,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="9"/>
@@ -7322,7 +7320,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8105,7 +8103,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8278,7 +8276,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8396,7 +8396,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B0CF7-19C3-4DD9-9CB8-57004DCD2410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07187192-71DC-471C-A47E-657393717916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="299">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2908,12 +2908,6 @@
     <t>Bo Chen</t>
   </si>
   <si>
-    <t>P0, P1</t>
-  </si>
-  <si>
-    <t>P8, P9</t>
-  </si>
-  <si>
     <t>P39, P40</t>
   </si>
   <si>
@@ -2960,6 +2954,84 @@
   </si>
   <si>
     <t>Submissions_Timezones:</t>
+  </si>
+  <si>
+    <t>NEW19A21, NEW19A3756</t>
+  </si>
+  <si>
+    <t>GMT+3</t>
+  </si>
+  <si>
+    <t>GMT-6</t>
+  </si>
+  <si>
+    <t>GMT-12</t>
+  </si>
+  <si>
+    <t>GMT+6</t>
+  </si>
+  <si>
+    <t>GMT+4</t>
+  </si>
+  <si>
+    <t>GMT+8</t>
+  </si>
+  <si>
+    <t>GMT+0</t>
+  </si>
+  <si>
+    <t>GMT+1</t>
+  </si>
+  <si>
+    <t>GMT+5</t>
+  </si>
+  <si>
+    <t>GMT+7</t>
+  </si>
+  <si>
+    <t>GMT+9</t>
+  </si>
+  <si>
+    <t>GMT+10</t>
+  </si>
+  <si>
+    <t>GMT+11</t>
+  </si>
+  <si>
+    <t>GMT+12</t>
+  </si>
+  <si>
+    <t>GMT-11</t>
+  </si>
+  <si>
+    <t>GMT-10</t>
+  </si>
+  <si>
+    <t>GMT-9</t>
+  </si>
+  <si>
+    <t>GMT-8</t>
+  </si>
+  <si>
+    <t>GMT-7</t>
+  </si>
+  <si>
+    <t>GMT-5</t>
+  </si>
+  <si>
+    <t>GMT-4</t>
+  </si>
+  <si>
+    <t>GMT-3</t>
+  </si>
+  <si>
+    <t>GMT-2</t>
+  </si>
+  <si>
+    <t>GMT-1</t>
+  </si>
+  <si>
+    <t>P12, P13, P11</t>
   </si>
 </sst>
 </file>
@@ -4834,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4870,7 +4942,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>99</v>
@@ -4910,7 +4982,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="28">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>102</v>
@@ -4961,7 +5033,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E11" s="27">
         <v>9</v>
@@ -5065,7 +5137,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E24" s="27">
         <v>22</v>
@@ -5073,7 +5145,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" s="27">
         <v>23</v>
@@ -5081,7 +5153,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E26" s="27">
         <v>24</v>
@@ -5089,7 +5161,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E27" s="27">
         <v>25</v>
@@ -5097,7 +5169,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E28" s="27">
         <v>26</v>
@@ -5105,7 +5177,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E29" s="27">
         <v>27</v>
@@ -5113,7 +5185,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E30" s="27">
         <v>28</v>
@@ -5121,7 +5193,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E31" s="27">
         <v>29</v>
@@ -5129,7 +5201,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E32" s="27">
         <v>30</v>
@@ -5137,7 +5209,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E33" s="27">
         <v>31</v>
@@ -5154,9 +5226,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5176,7 +5248,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>48</v>
@@ -5255,12 +5327,18 @@
       <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="J2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="9"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -5360,7 +5438,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>199</v>
@@ -5759,7 +5837,7 @@
         <v>214</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5935,7 +6013,7 @@
         <v>217</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6171,7 +6249,7 @@
         <v>198</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6308,7 +6386,7 @@
         <v>226</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6438,10 +6516,9 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -6996,7 +7073,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7059,9 +7136,6 @@
       <c r="G2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -7079,9 +7153,6 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -7101,9 +7172,6 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -7123,9 +7191,6 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="6" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -7145,9 +7210,6 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="6" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7167,9 +7229,6 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -7189,9 +7248,6 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -7212,7 +7268,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7319,8 +7375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7370,7 +7426,7 @@
         <v>130</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -7384,7 +7440,7 @@
         <v>134</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -7412,7 +7468,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -7426,7 +7482,7 @@
         <v>119</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
@@ -7440,7 +7496,7 @@
         <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -7454,7 +7510,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -7468,7 +7524,7 @@
         <v>116</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -7482,7 +7538,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -7496,7 +7552,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -7510,7 +7566,7 @@
         <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -7524,7 +7580,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -7538,7 +7594,7 @@
         <v>146</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -7552,7 +7608,7 @@
         <v>151</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -7566,7 +7622,7 @@
         <v>128</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -7580,7 +7636,7 @@
         <v>132</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -7594,7 +7650,7 @@
         <v>143</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -7608,7 +7664,7 @@
         <v>147</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -7622,7 +7678,7 @@
         <v>149</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -7636,7 +7692,7 @@
         <v>152</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -7650,7 +7706,7 @@
         <v>124</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -7664,7 +7720,7 @@
         <v>127</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -7678,7 +7734,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -7692,7 +7748,7 @@
         <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -7706,7 +7762,7 @@
         <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -7720,7 +7776,7 @@
         <v>136</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -7734,7 +7790,7 @@
         <v>121</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -7748,7 +7804,7 @@
         <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -7762,7 +7818,7 @@
         <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
@@ -7776,7 +7832,7 @@
         <v>140</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
@@ -7790,7 +7846,7 @@
         <v>131</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
@@ -7804,7 +7860,7 @@
         <v>139</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
@@ -7818,7 +7874,7 @@
         <v>141</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
@@ -7832,7 +7888,7 @@
         <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
@@ -7846,7 +7902,7 @@
         <v>150</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
@@ -7860,7 +7916,7 @@
         <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
@@ -7874,7 +7930,7 @@
         <v>122</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
@@ -7888,7 +7944,7 @@
         <v>126</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
@@ -7902,7 +7958,7 @@
         <v>148</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
@@ -7916,7 +7972,7 @@
         <v>233</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -7930,7 +7986,7 @@
         <v>235</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>1</v>
@@ -7944,7 +8000,7 @@
         <v>237</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
@@ -7958,7 +8014,7 @@
         <v>239</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
@@ -7972,7 +8028,7 @@
         <v>241</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>1</v>
@@ -7986,7 +8042,7 @@
         <v>137</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>1</v>
@@ -8000,7 +8056,7 @@
         <v>244</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>1</v>
@@ -8014,7 +8070,7 @@
         <v>246</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>1</v>
@@ -8028,7 +8084,7 @@
         <v>248</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>1</v>
@@ -8042,7 +8098,7 @@
         <v>250</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>1</v>
@@ -8056,7 +8112,7 @@
         <v>252</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>1</v>
@@ -8070,7 +8126,7 @@
         <v>254</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>1</v>
@@ -8084,7 +8140,7 @@
         <v>256</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>1</v>
@@ -8103,7 +8159,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8169,10 +8225,10 @@
         <v>44405</v>
       </c>
       <c r="F2" s="19">
-        <v>0.39583333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G2" s="19">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07187192-71DC-471C-A47E-657393717916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1B1DE5-AE72-4971-AD48-E1D69059FF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="298">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -2677,9 +2677,6 @@
     <t>Floor 0</t>
   </si>
   <si>
-    <t>Floor 10</t>
-  </si>
-  <si>
     <t>Tracks_Buildings:</t>
   </si>
   <si>
@@ -2713,9 +2710,6 @@
     <t>Tracks Same Building</t>
   </si>
   <si>
-    <t>Consultancy, Supply Chain &amp; Transportation Management</t>
-  </si>
-  <si>
     <t>P0</t>
   </si>
   <si>
@@ -2956,9 +2950,6 @@
     <t>Submissions_Timezones:</t>
   </si>
   <si>
-    <t>NEW19A21, NEW19A3756</t>
-  </si>
-  <si>
     <t>GMT+3</t>
   </si>
   <si>
@@ -3032,6 +3023,12 @@
   </si>
   <si>
     <t>P12, P13, P11</t>
+  </si>
+  <si>
+    <t>Analytics, Consultancy</t>
+  </si>
+  <si>
+    <t>Floor 1</t>
   </si>
 </sst>
 </file>
@@ -3360,18 +3357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3381,6 +3366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,12 +3380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3408,10 +3393,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3428,9 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3453,14 +3447,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3829,7 +3826,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="51"/>
@@ -3852,347 +3849,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4201,427 +4198,439 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4638,27 +4647,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4906,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4942,7 +4939,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>99</v>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="27">
         <v>7</v>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="27">
         <v>8</v>
@@ -5033,7 +5030,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E11" s="27">
         <v>9</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="27">
         <v>10</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="27">
         <v>11</v>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="27">
         <v>18</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="27">
         <v>19</v>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="27">
         <v>20</v>
@@ -5129,7 +5126,7 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="27">
         <v>21</v>
@@ -5137,7 +5134,7 @@
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" s="27">
         <v>22</v>
@@ -5145,7 +5142,7 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" s="27">
         <v>23</v>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E26" s="27">
         <v>24</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E27" s="27">
         <v>25</v>
@@ -5169,7 +5166,7 @@
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E28" s="27">
         <v>26</v>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E29" s="27">
         <v>27</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E30" s="27">
         <v>28</v>
@@ -5193,7 +5190,7 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E31" s="27">
         <v>29</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E32" s="27">
         <v>30</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E33" s="27">
         <v>31</v>
@@ -5226,9 +5223,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5248,7 +5245,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>48</v>
@@ -5269,7 +5266,7 @@
         <v>166</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>173</v>
@@ -5327,17 +5324,13 @@
       <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>273</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -5370,7 +5363,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K3" s="9"/>
       <c r="P3" s="1"/>
@@ -5404,7 +5397,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K4" s="9"/>
       <c r="P4" s="1"/>
@@ -5438,10 +5431,10 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -5474,7 +5467,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K6" s="9"/>
       <c r="P6" s="1"/>
@@ -5508,7 +5501,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K7" s="9"/>
       <c r="P7" s="1"/>
@@ -5542,7 +5535,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K8" s="9"/>
       <c r="N8" s="1">
@@ -5582,7 +5575,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K9" s="9"/>
       <c r="P9" s="1"/>
@@ -5616,10 +5609,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5652,7 +5645,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K11" s="9"/>
       <c r="P11" s="1"/>
@@ -5686,7 +5679,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="1">
@@ -5726,7 +5719,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="1">
@@ -5766,7 +5759,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" s="1"/>
@@ -5800,7 +5793,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K15" s="9"/>
       <c r="P15" s="1"/>
@@ -5834,10 +5827,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5870,7 +5863,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K17" s="9"/>
       <c r="P17" s="1"/>
@@ -5938,7 +5931,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -5976,7 +5969,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -6006,14 +5999,12 @@
         <v>1</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6045,10 +6036,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -6078,11 +6069,9 @@
         <v>1</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6114,7 +6103,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" s="1"/>
@@ -6147,7 +6136,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K25" s="9"/>
       <c r="P25" s="1"/>
@@ -6180,7 +6169,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K26" s="9"/>
       <c r="P26" s="1"/>
@@ -6213,7 +6202,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K27" s="9"/>
       <c r="P27" s="1"/>
@@ -6244,12 +6233,14 @@
         <v>1</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="J28" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6281,7 +6272,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -6319,7 +6310,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -6348,10 +6339,9 @@
       <c r="G31" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -6383,10 +6373,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6418,7 +6408,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K33" s="9"/>
       <c r="P33" s="1"/>
@@ -6451,7 +6441,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K34" s="9"/>
       <c r="P34" s="1"/>
@@ -6484,7 +6474,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K35" s="9"/>
       <c r="P35" s="1"/>
@@ -6517,7 +6507,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -7073,7 +7063,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7105,10 +7095,10 @@
         <v>171</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>167</v>
@@ -7130,12 +7120,6 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -7153,6 +7137,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -7171,7 +7158,6 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -7189,8 +7175,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -7222,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7268,7 +7255,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7420,13 +7407,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -7440,7 +7427,7 @@
         <v>134</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -7448,7 +7435,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>154</v>
@@ -7462,13 +7449,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -7476,13 +7463,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
@@ -7490,13 +7477,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -7504,13 +7491,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -7518,13 +7505,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -7532,13 +7519,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -7546,13 +7533,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -7560,13 +7547,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -7574,13 +7561,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>142</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -7588,13 +7575,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>146</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -7602,13 +7589,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -7616,13 +7603,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -7630,13 +7617,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -7644,13 +7631,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>143</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -7658,13 +7645,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>147</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -7672,13 +7659,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>149</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -7686,13 +7673,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>152</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -7700,13 +7687,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -7714,13 +7701,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -7728,13 +7715,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -7742,13 +7729,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -7756,13 +7743,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -7770,13 +7757,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -7784,13 +7771,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -7798,13 +7785,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -7812,13 +7799,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
@@ -7826,13 +7813,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>140</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
@@ -7840,13 +7827,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I32" s="1" t="b">
         <v>1</v>
@@ -7854,13 +7841,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>139</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>1</v>
@@ -7868,13 +7855,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
@@ -7882,13 +7869,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I35" s="1" t="b">
         <v>1</v>
@@ -7896,13 +7883,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>150</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I36" s="1" t="b">
         <v>1</v>
@@ -7910,13 +7897,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I37" s="1" t="b">
         <v>1</v>
@@ -7924,13 +7911,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>122</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
@@ -7938,13 +7925,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
@@ -7952,13 +7939,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
@@ -7966,13 +7953,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -7980,13 +7967,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>1</v>
@@ -7994,13 +7981,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>
@@ -8008,13 +7995,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I44" s="1" t="b">
         <v>1</v>
@@ -8022,13 +8009,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I45" s="1" t="b">
         <v>1</v>
@@ -8036,13 +8023,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>137</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I46" s="1" t="b">
         <v>1</v>
@@ -8050,13 +8037,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I47" s="1" t="b">
         <v>1</v>
@@ -8064,13 +8051,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I48" s="1" t="b">
         <v>1</v>
@@ -8078,13 +8065,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I49" s="1" t="b">
         <v>1</v>
@@ -8092,13 +8079,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I50" s="1" t="b">
         <v>1</v>
@@ -8106,13 +8093,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I51" s="1" t="b">
         <v>1</v>
@@ -8120,13 +8107,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I52" s="1" t="b">
         <v>1</v>
@@ -8134,13 +8121,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I53" s="1" t="b">
         <v>1</v>
@@ -8159,7 +8146,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8332,8 +8319,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8388,7 +8375,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8396,7 +8383,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1B1DE5-AE72-4971-AD48-E1D69059FF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A5882-9D1E-491E-BA79-0D127D39124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -3357,6 +3357,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3366,12 +3378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3380,6 +3386,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3393,22 +3405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3425,6 +3425,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3447,17 +3450,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3826,7 +3826,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="51"/>
@@ -3849,347 +3849,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4198,418 +4198,448 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -4626,36 +4656,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4903,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,7 +4945,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4971,7 +4971,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4985,7 +4985,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4993,7 +4993,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5001,7 +5001,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -5009,7 +5009,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -5017,7 +5017,7 @@
         <v>183</v>
       </c>
       <c r="E9" s="27">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5025,7 +5025,7 @@
         <v>184</v>
       </c>
       <c r="E10" s="27">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -5033,7 +5033,7 @@
         <v>270</v>
       </c>
       <c r="E11" s="27">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -5041,7 +5041,7 @@
         <v>182</v>
       </c>
       <c r="E12" s="27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -5049,7 +5049,7 @@
         <v>181</v>
       </c>
       <c r="E13" s="27">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -5057,7 +5057,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="27">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -5065,7 +5065,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="27">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -5073,7 +5073,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="27">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
@@ -5081,7 +5081,7 @@
         <v>109</v>
       </c>
       <c r="E17" s="27">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
@@ -5089,7 +5089,7 @@
         <v>172</v>
       </c>
       <c r="E18" s="27">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
@@ -5097,7 +5097,7 @@
         <v>110</v>
       </c>
       <c r="E19" s="27">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
@@ -5105,7 +5105,7 @@
         <v>180</v>
       </c>
       <c r="E20" s="27">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
         <v>187</v>
       </c>
       <c r="E21" s="27">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
@@ -5121,7 +5121,7 @@
         <v>188</v>
       </c>
       <c r="E22" s="27">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
@@ -5129,7 +5129,7 @@
         <v>189</v>
       </c>
       <c r="E23" s="27">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
@@ -5137,7 +5137,7 @@
         <v>261</v>
       </c>
       <c r="E24" s="27">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
@@ -5145,7 +5145,7 @@
         <v>262</v>
       </c>
       <c r="E25" s="27">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
@@ -5153,7 +5153,7 @@
         <v>259</v>
       </c>
       <c r="E26" s="27">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
@@ -5161,7 +5161,7 @@
         <v>260</v>
       </c>
       <c r="E27" s="27">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
@@ -5169,7 +5169,7 @@
         <v>263</v>
       </c>
       <c r="E28" s="27">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
         <v>264</v>
       </c>
       <c r="E29" s="27">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.3">
@@ -5185,7 +5185,7 @@
         <v>265</v>
       </c>
       <c r="E30" s="27">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
@@ -5193,7 +5193,7 @@
         <v>266</v>
       </c>
       <c r="E31" s="27">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.3">
@@ -5201,7 +5201,7 @@
         <v>267</v>
       </c>
       <c r="E32" s="27">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -5209,7 +5209,7 @@
         <v>268</v>
       </c>
       <c r="E33" s="27">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5224,8 +5224,8 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7063,7 +7063,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8319,7 +8319,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8439,7 +8439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A5882-9D1E-491E-BA79-0D127D39124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE31998-03AF-49F6-9F0A-86139A2AF90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -3357,18 +3357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3378,6 +3366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3386,12 +3380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3405,10 +3393,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3425,9 +3425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3450,14 +3447,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3826,7 +3826,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="51"/>
@@ -3849,347 +3849,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="61"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4198,427 +4198,439 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="45"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="47"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="37"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="37"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="45"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="45"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="47"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="45"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="41"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4635,27 +4647,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -7062,8 +7062,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Dataset/N2OR_New.xlsx
+++ b/Dataset/N2OR_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE31998-03AF-49F6-9F0A-86139A2AF90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA2CE5-E4DF-4888-ADBD-A2E56A002F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F249EDFC-1AF7-4DBE-8FCA-6FD2C552A269}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{67F9A09A-505A-46DA-9298-8A8AA994B592}">
       <text>
         <r>
           <rPr>
@@ -61,530 +61,8 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Reference</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> is used to identify a submission. 
-Each value is </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>case sensitive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, it must be </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>unique</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> and of </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>string</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type.
-Acceptable examples are: NEW19A19, submission1, PaperOne, etc.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D067543E-1335-4955-83CE-14082C4E5C1D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Track</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> refers to a group name which contains similar submissions. When two or more submissions have similar topic, then they should belong to the same track.
-Each value is </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>case sensitive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> and must be a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>string</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">.
-Acceptable examples are: Analytics, Optimisation, Big Data and AI, etc.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> Each value must exactly match the tracks used in tracks sheet.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C404643A-8D53-44A6-B4FE-13F721849159}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Required Timeslots </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies how many time slots are required for the respective submission.
-Each value must be an </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>integer</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{835C570F-F0A2-4239-B4C1-60572DBC8791}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Order </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the order of scheduling for submissions within the same track. Order must be used only for submissions of the same track. When order is of no interest, then 0 value must be used.
-Each value must be an </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>integer</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{371A08FD-AA04-474A-A56E-F9420BC71D22}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Speakers</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> refers to the author(s) of the respective submission. Multiple authors can be used.
-Each value is </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>case sensitive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> and must be a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>string</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> If multiple authors are used, each author must be separated by a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>comma</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> followed by </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>&lt;space&gt;</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>. For example, Speaker1, Speaker2, Speaker3.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DD87C004-9160-4AC9-8212-C1F37A0EA3DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Attendees</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> refers to the attendee(s) of the respective submission. Multiple attendees can be used.
-Each value is </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>case sensitive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> and must be a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>string</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> If multiple attendees are used, each attendee must be separated by a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>comma</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> followed by </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>&lt;space&gt;</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">. For example, Attendee1, Attendee2, Attendee3.
-</t>
+          </rPr>
+          <t>Schedule whole track in one building.</t>
         </r>
       </text>
     </comment>
@@ -598,7 +76,7 @@
     <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CCE42400-F328-464B-ADCA-DFABE0D6A13A}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F249EDFC-1AF7-4DBE-8FCA-6FD2C552A269}">
       <text>
         <r>
           <rPr>
@@ -609,17 +87,16 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Tracks </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">refers to a group name which contains similar submissions.
+          <t>Reference</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> is used to identify a submission. 
 Each value is </t>
         </r>
         <r>
@@ -639,7 +116,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="161"/>
           </rPr>
           <t xml:space="preserve">, it must be </t>
         </r>
@@ -660,7 +136,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="161"/>
           </rPr>
           <t xml:space="preserve"> and of </t>
         </r>
@@ -681,36 +156,14 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="161"/>
           </rPr>
           <t xml:space="preserve"> type.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Note: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Each value must exactly match the tracks used in submissions sheet.
+Acceptable examples are: NEW19A19, submission1, PaperOne, etc.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{550A1C42-606C-4FF5-BC22-37D30C679FBB}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D067543E-1335-4955-83CE-14082C4E5C1D}">
       <text>
         <r>
           <rPr>
@@ -721,6 +174,144 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
+          <t>Track</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> refers to a group name which contains similar submissions. When two or more submissions have similar topic, then they should belong to the same track.
+Each value is </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>case sensitive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> and must be a </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>string</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">.
+Acceptable examples are: Analytics, Optimisation, Big Data and AI, etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> Each value must exactly match the tracks used in tracks sheet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C404643A-8D53-44A6-B4FE-13F721849159}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Required Timeslots </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies how many time slots are required for the respective submission.
+Each value must be an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>integer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{835C570F-F0A2-4239-B4C1-60572DBC8791}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
           <t xml:space="preserve">Order </t>
         </r>
         <r>
@@ -731,7 +322,7 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">specifies the order in which tracks should be scheduled. When order is of no interest, then 0 value must be used.
+          <t xml:space="preserve">specifies the order of scheduling for submissions within the same track. Order must be used only for submissions of the same track. When order is of no interest, then 0 value must be used.
 Each value must be an </t>
         </r>
         <r>
@@ -744,6 +335,73 @@
             <charset val="161"/>
           </rPr>
           <t>integer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{371A08FD-AA04-474A-A56E-F9420BC71D22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Speakers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> refers to the author(s) of the respective submission. Multiple authors can be used.
+Each value is </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>case sensitive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> and must be a </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>string</t>
         </r>
         <r>
           <rPr>
@@ -756,9 +414,72 @@
           <t xml:space="preserve">.
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> If multiple authors are used, each author must be separated by a </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>comma</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> followed by </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>&lt;space&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>. For example, Speaker1, Speaker2, Speaker3.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D6C26095-3954-4DE8-B600-49D1FC1771E2}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{DD87C004-9160-4AC9-8212-C1F37A0EA3DF}">
       <text>
         <r>
           <rPr>
@@ -769,17 +490,17 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t>Organizers</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> refers to the chair(s) of the respective submission. Multiple organizers can be used.
+          <t>Attendees</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> refers to the attendee(s) of the respective submission. Multiple attendees can be used.
 Each value is </t>
         </r>
         <r>
@@ -844,7 +565,7 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve"> If multiple organizers are used, each organizer must be separated by a </t>
+          <t xml:space="preserve"> If multiple attendees are used, each attendee must be separated by a </t>
         </r>
         <r>
           <rPr>
@@ -886,8 +607,7 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">. 
-For example, Organizer1, Organizer2, Organizer3.
+          <t xml:space="preserve">. For example, Attendee1, Attendee2, Attendee3.
 </t>
         </r>
       </text>
@@ -902,7 +622,7 @@
     <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B37CDDFF-1072-43AF-BE22-2948419A77EC}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CCE42400-F328-464B-ADCA-DFABE0D6A13A}">
       <text>
         <r>
           <rPr>
@@ -913,17 +633,17 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Sessions </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">refers to the name of each available session.
+          <t xml:space="preserve">Tracks </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">refers to a group name which contains similar submissions.
 Each value is </t>
         </r>
         <r>
@@ -988,7 +708,6 @@
             <charset val="161"/>
           </rPr>
           <t xml:space="preserve"> type.
-Acceptable examples are: Wed1, Wedmorning, Thu2, etc.
 </t>
         </r>
         <r>
@@ -1000,21 +719,22 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t>Note:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve"> Each value must exactly match the sessions used in submissions sheet.</t>
+          <t xml:space="preserve">Note: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Each value must exactly match the tracks used in submissions sheet.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{38DA02BA-317B-4614-8CCC-B07AE8751148}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{550A1C42-606C-4FF5-BC22-37D30C679FBB}">
       <text>
         <r>
           <rPr>
@@ -1025,17 +745,17 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Max Number of Timeslots </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
+          <t xml:space="preserve">Order </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the order in which tracks should be scheduled. When order is of no interest, then 0 value must be used.
 Each value must be an </t>
         </r>
         <r>
@@ -1057,11 +777,12 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t>.</t>
+          <t xml:space="preserve">.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{393D254F-89FB-4184-8F08-0071F98434BD}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D6C26095-3954-4DE8-B600-49D1FC1771E2}">
       <text>
         <r>
           <rPr>
@@ -1072,18 +793,18 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Date </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the date that each session corresponds to.
-Each value must follow the following format </t>
+          <t>Organizers</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> refers to the chair(s) of the respective submission. Multiple organizers can be used.
+Each value is </t>
         </r>
         <r>
           <rPr>
@@ -1092,23 +813,20 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t>MM/DD/YYYY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{554A7886-8588-41FF-8AD3-604EE4192D5E}">
-      <text>
+            <charset val="161"/>
+          </rPr>
+          <t>case sensitive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> and must be a </t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -1118,18 +836,18 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Start time </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the time at which the session begins.
-Each value must be in the following time format: </t>
+          <t>string</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
         </r>
         <r>
           <rPr>
@@ -1140,66 +858,61 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">HH:MM
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> If multiple organizers are used, each organizer must be separated by a </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>comma</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> followed by </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>&lt;space&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">. 
+For example, Organizer1, Organizer2, Organizer3.
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Acceptable examples are: 12:00, 16:30, etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D105A352-2402-4728-9DB9-7804A888C5C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">End time </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the time at which the session ends.
-Each value must be in the following time format: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>HH:MM</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">
-Acceptable examples are: 12:00, 16:30, etc.</t>
         </r>
       </text>
     </comment>
@@ -1213,7 +926,7 @@
     <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F30BD003-207A-4A1B-B609-45594903E06C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B37CDDFF-1072-43AF-BE22-2948419A77EC}">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{36E8B2BC-8BF1-4E8C-AC71-2556638A9591}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{38DA02BA-317B-4614-8CCC-B07AE8751148}">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A6854516-8A27-4DD1-9254-8BDA57B2877F}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{393D254F-89FB-4184-8F08-0071F98434BD}">
       <text>
         <r>
           <rPr>
@@ -1383,18 +1096,18 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Max Number of Timeslots </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
-Each value must be an </t>
+          <t xml:space="preserve">Date </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the date that each session corresponds to.
+Each value must follow the following format </t>
         </r>
         <r>
           <rPr>
@@ -1403,9 +1116,8 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>integer</t>
+          </rPr>
+          <t>MM/DD/YYYY</t>
         </r>
         <r>
           <rPr>
@@ -1419,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{78B9769A-6417-4967-92C4-29BAC32CB038}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{554A7886-8588-41FF-8AD3-604EE4192D5E}">
       <text>
         <r>
           <rPr>
@@ -1430,18 +1142,18 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t xml:space="preserve">Max Number of Timeslots </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
-Each value must be an </t>
+          <t xml:space="preserve">Start time </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the time at which the session begins.
+Each value must be in the following time format: </t>
         </r>
         <r>
           <rPr>
@@ -1452,115 +1164,22 @@
             <family val="2"/>
             <charset val="161"/>
           </rPr>
-          <t>integer</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>.</t>
+          <t xml:space="preserve">HH:MM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Acceptable examples are: 12:00, 16:30, etc.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9A1D4809-D146-46CB-8B7D-942A3605F8DD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Date </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the date that each session corresponds to.
-Each value must follow the following format </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MM/DD/YYYY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{23905893-4CA5-45F3-BC8E-AAE8E6399AFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">Start time </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">specifies the time at which the session begins.
-Each value must be in the following time format: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">HH:MM
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Acceptable examples are: 12:00, 16:30, etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{40A165C3-74DF-4B06-944C-6EF75D4FD580}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D105A352-2402-4728-9DB9-7804A888C5C1}">
       <text>
         <r>
           <rPr>
@@ -1613,6 +1232,411 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F30BD003-207A-4A1B-B609-45594903E06C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Sessions </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">refers to the name of each available session.
+Each value is </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>case sensitive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">, it must be </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>unique</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> and of </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>string</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> type.
+Acceptable examples are: Wed1, Wedmorning, Thu2, etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve"> Each value must exactly match the sessions used in submissions sheet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{36E8B2BC-8BF1-4E8C-AC71-2556638A9591}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Max Number of Timeslots </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
+Each value must be an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>integer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A6854516-8A27-4DD1-9254-8BDA57B2877F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Max Number of Timeslots </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
+Each value must be an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>integer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{78B9769A-6417-4967-92C4-29BAC32CB038}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Max Number of Timeslots </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the maximum number of available time slots for the respective session.
+Each value must be an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>integer</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9A1D4809-D146-46CB-8B7D-942A3605F8DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Date </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the date that each session corresponds to.
+Each value must follow the following format </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MM/DD/YYYY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{23905893-4CA5-45F3-BC8E-AAE8E6399AFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Start time </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the time at which the session begins.
+Each value must be in the following time format: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">HH:MM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Acceptable examples are: 12:00, 16:30, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{40A165C3-74DF-4B06-944C-6EF75D4FD580}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">End time </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">specifies the time at which the session ends.
+Each value must be in the following time format: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>HH:MM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+Acceptable examples are: 12:00, 16:30, etc.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ΓΙΑΡΟΣΛΑΒ ΠΙΛΙΑΒΣΚΙ</author>
@@ -3357,6 +3381,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3366,12 +3402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3380,6 +3410,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3393,22 +3429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3425,6 +3449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3447,17 +3474,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3474,6 +3498,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3826,7 +3854,7 @@
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="51"/>
@@ -3849,347 +3877,347 @@
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4198,418 +4226,448 @@
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="63"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="45"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="45"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="45"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="45"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="45"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="45"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="47"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -4626,36 +4684,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4900,11 +4928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5215,6 +5243,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7062,7 +7091,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
